--- a/build/lib/biosteam/biorefineries/lipidcane/distribution_summary.xlsx
+++ b/build/lib/biosteam/biorefineries/lipidcane/distribution_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\biorefineries\lipidcane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC06629ECCA68170BAABB64E22A713E257A" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E5079667-4AAA-4926-BC42-18ECBC630780}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FFC65FC06629ECCA68170BAABB64E22A713E257A" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{EFB3B690-D441-41A6-8F0C-2F3D3D4F835B}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
     <t>USD/kmol</t>
   </si>
   <si>
-    <t>Triangle</t>
+    <t>Triangular</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
     <col min="1" max="1" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="8.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
